--- a/REGULAR/OJT/NEW DONE/ZALDIVIA, MARIAM F..xlsx
+++ b/REGULAR/OJT/NEW DONE/ZALDIVIA, MARIAM F..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khym Espino\OneDrive\Documents\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3BBE28-AABB-45FF-B192-8121DDBF5295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="406">
   <si>
     <t>PERIOD</t>
   </si>
@@ -176,9 +169,6 @@
     <t>PERMANENT</t>
   </si>
   <si>
-    <t>1 - Married (and not separated)</t>
-  </si>
-  <si>
     <t>1994</t>
   </si>
   <si>
@@ -467,15 +457,9 @@
     <t>10/21,27/2006</t>
   </si>
   <si>
-    <t>FL(4-0-0)</t>
-  </si>
-  <si>
     <t>10/30-11/3/2006</t>
   </si>
   <si>
-    <t>FL(13-0-0)</t>
-  </si>
-  <si>
     <t>11/13-29/2006</t>
   </si>
   <si>
@@ -710,9 +694,6 @@
     <t>07/29,30, 08/2/2010</t>
   </si>
   <si>
-    <t>SVL(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(5-4-18)</t>
   </si>
   <si>
@@ -1263,12 +1244,21 @@
   </si>
   <si>
     <t>07/25,26/2022</t>
+  </si>
+  <si>
+    <t>VL(13-0-0)</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1513,7 +1503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1668,9 +1658,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3692,26 +3679,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K574" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K574"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K575" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K575" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3723,13 +3710,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3738,14 +3725,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4049,7 +4036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4059,7 +4046,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4067,95 +4054,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K574"/>
+  <dimension ref="A2:K575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4308" topLeftCell="A10" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="63"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="61"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4163,7 +4147,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4176,24 +4160,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +4212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4237,7 +4221,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-112.46500000000015</v>
+        <v>-108.42300000000023</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4247,14 +4231,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>69.375</v>
+        <v>70.166999999999916</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -4274,25 +4258,27 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>34612</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>1.083</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.083</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34639</v>
       </c>
@@ -4312,7 +4298,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34669</v>
@@ -4333,9 +4319,9 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -4351,7 +4337,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f>EDATE(A13,1)</f>
         <v>34700</v>
@@ -4372,7 +4358,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>34731</v>
@@ -4393,7 +4379,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A26" si="0">EDATE(A16,1)</f>
         <v>34759</v>
@@ -4414,7 +4400,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4435,7 +4421,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4456,7 +4442,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4477,7 +4463,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4498,13 +4484,13 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>34912</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -4522,10 +4508,10 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4546,7 +4532,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4567,7 +4553,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <f>EDATE(A24,1)</f>
         <v>35004</v>
@@ -4588,13 +4574,13 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>35034</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -4613,9 +4599,9 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -4631,7 +4617,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f>EDATE(A26,1)</f>
         <v>35065</v>
@@ -4652,7 +4638,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>35096</v>
@@ -4673,7 +4659,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" ref="A30:A40" si="1">EDATE(A29,1)</f>
         <v>35125</v>
@@ -4694,7 +4680,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4715,7 +4701,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4736,7 +4722,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4757,7 +4743,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4778,13 +4764,13 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -4802,16 +4788,16 @@
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f>EDATE(A35,1)</f>
         <v>35309</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -4829,13 +4815,13 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39">
@@ -4851,10 +4837,10 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f>EDATE(A36,1)</f>
         <v>35339</v>
@@ -4875,7 +4861,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4896,20 +4882,16 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35400</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="B40" s="20"/>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
-      <c r="D40" s="39">
-        <v>5</v>
-      </c>
+      <c r="D40" s="39"/>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
@@ -4921,9 +4903,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4939,7 +4921,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35431</v>
@@ -4960,7 +4942,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35462</v>
@@ -4981,7 +4963,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" ref="A44:A55" si="2">EDATE(A43,1)</f>
         <v>35490</v>
@@ -5002,7 +4984,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -5023,7 +5005,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -5044,13 +5026,13 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="13">
         <v>1.25</v>
@@ -5068,13 +5050,13 @@
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
       <c r="K47" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -5093,7 +5075,7 @@
         <v>35607</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>35612</v>
@@ -5114,7 +5096,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -5135,13 +5117,13 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="13">
         <v>1.25</v>
@@ -5157,13 +5139,13 @@
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
@@ -5182,13 +5164,13 @@
         <v>35703</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>35704</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="13">
         <v>1.25</v>
@@ -5206,10 +5188,10 @@
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
       <c r="K53" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A53,1)</f>
         <v>35735</v>
@@ -5230,13 +5212,13 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -5255,9 +5237,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -5273,7 +5255,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A55,1)</f>
         <v>35796</v>
@@ -5294,13 +5276,13 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>35827</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="13">
         <v>1.25</v>
@@ -5318,10 +5300,10 @@
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" ref="A59:A69" si="3">EDATE(A58,1)</f>
         <v>35855</v>
@@ -5342,7 +5324,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -5363,13 +5345,13 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
@@ -5387,16 +5369,16 @@
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
       <c r="K61" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="13">
         <v>1.25</v>
@@ -5414,10 +5396,10 @@
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -5438,13 +5420,13 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>36008</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="13">
         <v>1.25</v>
@@ -5462,13 +5444,13 @@
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="39">
@@ -5485,13 +5467,13 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36039</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
@@ -5510,13 +5492,13 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -5535,13 +5517,13 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
@@ -5560,13 +5542,13 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>36130</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -5584,13 +5566,13 @@
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="39">
@@ -5607,10 +5589,10 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39">
@@ -5627,9 +5609,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5645,13 +5627,13 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A69,1)</f>
         <v>36161</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -5669,13 +5651,13 @@
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -5694,10 +5676,10 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39">
@@ -5714,7 +5696,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>36192</v>
@@ -5735,13 +5717,13 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" ref="A77:A90" si="4">EDATE(A76,1)</f>
         <v>36220</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -5759,16 +5741,16 @@
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>36251</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -5786,13 +5768,13 @@
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39">
@@ -5809,13 +5791,13 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36281</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -5834,13 +5816,13 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A80,1)</f>
         <v>36312</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -5861,10 +5843,10 @@
         <v>36313</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -5878,13 +5860,13 @@
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -5898,13 +5880,13 @@
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5920,10 +5902,10 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A81,1)</f>
         <v>36342</v>
@@ -5944,7 +5926,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -5965,13 +5947,13 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="4"/>
         <v>36404</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
@@ -5989,13 +5971,13 @@
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39">
@@ -6012,7 +5994,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36434</v>
@@ -6033,7 +6015,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -6054,13 +6036,13 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f>EDATE(A90,1)</f>
         <v>36495</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C91" s="13">
         <v>1.25</v>
@@ -6079,9 +6061,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6097,7 +6079,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>36526</v>
@@ -6118,7 +6100,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>36557</v>
@@ -6139,7 +6121,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" ref="A95:A104" si="5">EDATE(A94,1)</f>
         <v>36586</v>
@@ -6160,7 +6142,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -6181,7 +6163,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -6202,7 +6184,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>36678</v>
@@ -6223,13 +6205,13 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C99" s="13">
         <v>1.25</v>
@@ -6247,16 +6229,16 @@
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C100" s="13">
         <v>1.25</v>
@@ -6274,10 +6256,10 @@
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
       <c r="K100" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -6298,7 +6280,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -6319,7 +6301,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -6340,13 +6322,13 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="5"/>
         <v>36861</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C104" s="13">
         <v>1.25</v>
@@ -6365,9 +6347,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6383,7 +6365,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>36892</v>
@@ -6404,7 +6386,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A106,1)</f>
         <v>36923</v>
@@ -6425,13 +6407,13 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" ref="A108:A117" si="6">EDATE(A107,1)</f>
         <v>36951</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C108" s="13">
         <v>1.25</v>
@@ -6449,10 +6431,10 @@
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -6473,13 +6455,13 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C110" s="13">
         <v>1.25</v>
@@ -6497,16 +6479,16 @@
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
       <c r="K110" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C111" s="13">
         <v>1.25</v>
@@ -6522,10 +6504,10 @@
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -6546,7 +6528,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -6567,7 +6549,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -6588,7 +6570,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -6609,7 +6591,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="6"/>
         <v>37196</v>
@@ -6630,13 +6612,13 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>37226</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C117" s="13">
         <v>1.25</v>
@@ -6655,9 +6637,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -6673,7 +6655,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37257</v>
@@ -6694,7 +6676,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" ref="A120:A200" si="7">EDATE(A119,1)</f>
         <v>37288</v>
@@ -6715,7 +6697,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>37316</v>
@@ -6736,7 +6718,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -6757,7 +6739,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -6778,7 +6760,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -6799,13 +6781,13 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -6823,10 +6805,10 @@
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
       <c r="K125" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6847,13 +6829,13 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C127" s="13">
         <v>1.25</v>
@@ -6874,13 +6856,13 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
@@ -6901,7 +6883,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6922,13 +6904,13 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C130" s="13">
         <v>1.25</v>
@@ -6947,9 +6929,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -6965,7 +6947,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>37622</v>
@@ -6986,7 +6968,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>37653</v>
@@ -7007,13 +6989,13 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>37681</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C134" s="13">
         <v>1.25</v>
@@ -7034,13 +7016,13 @@
         <v>37704</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="7"/>
         <v>37712</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C135" s="13">
         <v>1.25</v>
@@ -7058,10 +7040,10 @@
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
       <c r="K135" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="7"/>
         <v>37742</v>
@@ -7082,7 +7064,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="7"/>
         <v>37773</v>
@@ -7103,7 +7085,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="7"/>
         <v>37803</v>
@@ -7124,7 +7106,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>37834</v>
@@ -7145,13 +7127,13 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="7"/>
         <v>37865</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C140" s="13">
         <v>1.25</v>
@@ -7169,13 +7151,13 @@
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
       <c r="K140" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="39">
@@ -7191,10 +7173,10 @@
       <c r="I141" s="9"/>
       <c r="J141" s="11"/>
       <c r="K141" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37895</v>
@@ -7215,7 +7197,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="7"/>
         <v>37926</v>
@@ -7236,7 +7218,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="7"/>
         <v>37956</v>
@@ -7257,9 +7239,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -7275,13 +7257,13 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37987</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -7298,7 +7280,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="7"/>
         <v>38018</v>
@@ -7319,7 +7301,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="7"/>
         <v>38047</v>
@@ -7330,7 +7312,7 @@
       </c>
       <c r="D148" s="39"/>
       <c r="E148" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F148" s="20"/>
       <c r="G148" s="13">
@@ -7342,13 +7324,13 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C149" s="13">
         <v>1.25</v>
@@ -7366,16 +7348,16 @@
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
       <c r="K149" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C150" s="13">
         <v>1.25</v>
@@ -7396,7 +7378,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -7417,13 +7399,13 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C152" s="13">
         <v>1.25</v>
@@ -7441,10 +7423,10 @@
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
       <c r="K152" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -7465,13 +7447,13 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
@@ -7489,13 +7471,13 @@
       <c r="I154" s="9"/>
       <c r="J154" s="11"/>
       <c r="K154" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="39"/>
@@ -7514,13 +7496,13 @@
         <v>38246</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>38261</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C156" s="13">
         <v>1.25</v>
@@ -7541,10 +7523,10 @@
         <v>38265</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="39"/>
@@ -7560,13 +7542,13 @@
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
       <c r="K157" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C158" s="13"/>
       <c r="D158" s="39"/>
@@ -7585,7 +7567,7 @@
         <v>38280</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>38292</v>
@@ -7606,16 +7588,20 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f>EDATE(A159,1)</f>
         <v>38322</v>
       </c>
-      <c r="B160" s="20"/>
+      <c r="B160" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C160" s="13">
         <v>1.25</v>
       </c>
-      <c r="D160" s="39"/>
+      <c r="D160" s="39">
+        <v>5</v>
+      </c>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
       <c r="G160" s="13">
@@ -7627,9 +7613,9 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -7645,13 +7631,13 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A160,1)</f>
         <v>38353</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C162" s="13">
         <v>1.25</v>
@@ -7669,10 +7655,10 @@
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
       <c r="K162" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="7"/>
         <v>38384</v>
@@ -7693,7 +7679,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f t="shared" si="7"/>
         <v>38412</v>
@@ -7714,13 +7700,13 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C165" s="13">
         <v>1.25</v>
@@ -7738,13 +7724,13 @@
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
       <c r="K165" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="39"/>
@@ -7758,13 +7744,13 @@
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
       <c r="K166" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="39"/>
@@ -7780,16 +7766,16 @@
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
       <c r="K167" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A165,1)</f>
         <v>38473</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C168" s="13">
         <v>1.25</v>
@@ -7807,16 +7793,16 @@
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
       <c r="K168" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C169" s="13">
         <v>1.25</v>
@@ -7834,16 +7820,16 @@
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
       <c r="K169" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C170" s="13">
         <v>1.25</v>
@@ -7864,13 +7850,13 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C171" s="13">
         <v>1.25</v>
@@ -7888,16 +7874,16 @@
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
       <c r="K171" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="7"/>
         <v>38596</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C172" s="13">
         <v>1.25</v>
@@ -7916,13 +7902,13 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="7"/>
         <v>38626</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C173" s="13">
         <v>1.25</v>
@@ -7940,13 +7926,13 @@
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
       <c r="K173" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="39">
@@ -7962,10 +7948,10 @@
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
       <c r="K174" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>38657</v>
@@ -7986,7 +7972,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A175,1)</f>
         <v>38687</v>
@@ -8007,9 +7993,9 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -8025,13 +8011,13 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>38718</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C178" s="13">
         <v>1.25</v>
@@ -8049,13 +8035,13 @@
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
       <c r="K178" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="39">
@@ -8071,13 +8057,13 @@
       <c r="I179" s="9"/>
       <c r="J179" s="11"/>
       <c r="K179" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="39"/>
@@ -8093,10 +8079,10 @@
       <c r="I180" s="9"/>
       <c r="J180" s="11"/>
       <c r="K180" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38749</v>
@@ -8117,13 +8103,13 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38777</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C182" s="13">
         <v>1.25</v>
@@ -8144,13 +8130,13 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38808</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C183" s="13">
         <v>1.25</v>
@@ -8168,16 +8154,16 @@
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
       <c r="K183" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38838</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C184" s="13">
         <v>1.25</v>
@@ -8195,13 +8181,13 @@
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
       <c r="K184" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="39"/>
@@ -8215,10 +8201,10 @@
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
       <c r="K185" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38869</v>
@@ -8239,13 +8225,13 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C187" s="13">
         <v>1.25</v>
@@ -8263,10 +8249,10 @@
       <c r="I187" s="9"/>
       <c r="J187" s="11"/>
       <c r="K187" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -8287,13 +8273,13 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="7"/>
         <v>38961</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C189" s="13">
         <v>1.25</v>
@@ -8311,16 +8297,16 @@
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
       <c r="K189" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="7"/>
         <v>38991</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C190" s="13">
         <v>1.25</v>
@@ -8338,13 +8324,13 @@
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
       <c r="K190" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="39"/>
@@ -8360,13 +8346,13 @@
       <c r="I191" s="9"/>
       <c r="J191" s="11"/>
       <c r="K191" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
-        <v>141</v>
+        <v>404</v>
       </c>
       <c r="C192" s="13"/>
       <c r="D192" s="39">
@@ -8382,16 +8368,16 @@
       <c r="I192" s="9"/>
       <c r="J192" s="11"/>
       <c r="K192" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>39022</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>143</v>
+        <v>403</v>
       </c>
       <c r="C193" s="13">
         <v>1.25</v>
@@ -8409,16 +8395,16 @@
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
       <c r="K193" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="7"/>
         <v>39052</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C194" s="13">
         <v>1.25</v>
@@ -8434,13 +8420,13 @@
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
       <c r="K194" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="39"/>
@@ -8456,13 +8442,13 @@
       <c r="I195" s="9"/>
       <c r="J195" s="11"/>
       <c r="K195" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="39">
@@ -8478,12 +8464,12 @@
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
       <c r="K196" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -8499,7 +8485,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A194,1)</f>
         <v>39083</v>
@@ -8520,7 +8506,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="7"/>
         <v>39114</v>
@@ -8541,13 +8527,13 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="7"/>
         <v>39142</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C200" s="13">
         <v>1.25</v>
@@ -8565,16 +8551,16 @@
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
       <c r="K200" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A200,1)</f>
         <v>39173</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C201" s="13">
         <v>1.25</v>
@@ -8592,13 +8578,13 @@
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
       <c r="K201" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="39"/>
@@ -8617,10 +8603,10 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="39"/>
@@ -8636,13 +8622,13 @@
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
       <c r="K203" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="39"/>
@@ -8656,13 +8642,13 @@
       <c r="I204" s="9"/>
       <c r="J204" s="11"/>
       <c r="K204" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C205" s="13"/>
       <c r="D205" s="39"/>
@@ -8678,13 +8664,13 @@
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
       <c r="K205" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C206" s="13"/>
       <c r="D206" s="39"/>
@@ -8703,7 +8689,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f>EDATE(A201,1)</f>
         <v>39203</v>
@@ -8724,7 +8710,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" ref="A208:A352" si="8">EDATE(A207,1)</f>
         <v>39234</v>
@@ -8745,13 +8731,13 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="8"/>
         <v>39264</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C209" s="13">
         <v>1.25</v>
@@ -8769,16 +8755,16 @@
       <c r="I209" s="9"/>
       <c r="J209" s="11"/>
       <c r="K209" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="8"/>
         <v>39295</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C210" s="13">
         <v>1.25</v>
@@ -8794,13 +8780,13 @@
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
       <c r="K210" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="39"/>
@@ -8819,7 +8805,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39326</v>
@@ -8840,7 +8826,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="8"/>
         <v>39356</v>
@@ -8861,13 +8847,13 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="8"/>
         <v>39387</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C214" s="13">
         <v>1.25</v>
@@ -8885,13 +8871,13 @@
       <c r="I214" s="9"/>
       <c r="J214" s="11"/>
       <c r="K214" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C215" s="13"/>
       <c r="D215" s="39"/>
@@ -8910,10 +8896,10 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C216" s="13"/>
       <c r="D216" s="39"/>
@@ -8927,16 +8913,16 @@
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
       <c r="K216" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A214,1)</f>
         <v>39417</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C217" s="13">
         <v>1.25</v>
@@ -8957,10 +8943,10 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C218" s="13"/>
       <c r="D218" s="39">
@@ -8976,12 +8962,12 @@
       <c r="I218" s="9"/>
       <c r="J218" s="11"/>
       <c r="K218" s="51" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -8997,13 +8983,13 @@
       <c r="J219" s="11"/>
       <c r="K219" s="51"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>39448</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C220" s="13">
         <v>1.25</v>
@@ -9024,10 +9010,10 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="39"/>
@@ -9046,13 +9032,13 @@
         <v>39477</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39479</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C222" s="13">
         <v>1.25</v>
@@ -9071,7 +9057,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="8"/>
         <v>39508</v>
@@ -9092,13 +9078,13 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="8"/>
         <v>39539</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C224" s="13">
         <v>1.25</v>
@@ -9119,10 +9105,10 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="39"/>
@@ -9136,10 +9122,10 @@
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39569</v>
@@ -9160,7 +9146,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="8"/>
         <v>39600</v>
@@ -9181,13 +9167,13 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="8"/>
         <v>39630</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C228" s="13">
         <v>1.25</v>
@@ -9205,13 +9191,13 @@
       <c r="I228" s="9"/>
       <c r="J228" s="11"/>
       <c r="K228" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="39"/>
@@ -9230,7 +9216,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>39661</v>
@@ -9251,13 +9237,13 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="8"/>
         <v>39692</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C231" s="13">
         <v>1.25</v>
@@ -9275,16 +9261,16 @@
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
       <c r="K231" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" si="8"/>
         <v>39722</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C232" s="13">
         <v>1.25</v>
@@ -9302,13 +9288,13 @@
       <c r="I232" s="9"/>
       <c r="J232" s="11"/>
       <c r="K232" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="39"/>
@@ -9324,16 +9310,16 @@
       <c r="I233" s="9"/>
       <c r="J233" s="11"/>
       <c r="K233" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39753</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C234" s="13">
         <v>1.25</v>
@@ -9351,13 +9337,13 @@
       <c r="I234" s="9"/>
       <c r="J234" s="11"/>
       <c r="K234" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C235" s="13"/>
       <c r="D235" s="39">
@@ -9373,16 +9359,16 @@
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
       <c r="K235" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>39783</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C236" s="13">
         <v>1.25</v>
@@ -9398,13 +9384,13 @@
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="39"/>
@@ -9418,13 +9404,13 @@
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
       <c r="K237" s="51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="39">
@@ -9441,9 +9427,9 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -9459,13 +9445,13 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39814</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C240" s="13">
         <v>1.25</v>
@@ -9483,13 +9469,13 @@
       <c r="I240" s="9"/>
       <c r="J240" s="11"/>
       <c r="K240" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C241" s="13"/>
       <c r="D241" s="39"/>
@@ -9508,10 +9494,10 @@
         <v>39839</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C242" s="13"/>
       <c r="D242" s="39"/>
@@ -9526,13 +9512,13 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A240,1)</f>
         <v>39845</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C243" s="13">
         <v>1.25</v>
@@ -9548,13 +9534,13 @@
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
       <c r="K243" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C244" s="13"/>
       <c r="D244" s="39"/>
@@ -9568,16 +9554,16 @@
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
       <c r="K244" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39873</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C245" s="13">
         <v>1.25</v>
@@ -9595,13 +9581,13 @@
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
       <c r="K245" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C246" s="13"/>
       <c r="D246" s="39"/>
@@ -9620,10 +9606,10 @@
         <v>39886</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39"/>
@@ -9639,13 +9625,13 @@
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
       <c r="K247" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C248" s="13"/>
       <c r="D248" s="39"/>
@@ -9664,10 +9650,10 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C249" s="13"/>
       <c r="D249" s="39"/>
@@ -9686,10 +9672,10 @@
         <v>39890</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C250" s="13"/>
       <c r="D250" s="39">
@@ -9706,13 +9692,13 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f>EDATE(A245,1)</f>
         <v>39904</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C251" s="13">
         <v>1.25</v>
@@ -9731,13 +9717,13 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="8"/>
         <v>39934</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C252" s="13">
         <v>1.25</v>
@@ -9755,13 +9741,13 @@
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
       <c r="K252" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C253" s="13"/>
       <c r="D253" s="39"/>
@@ -9778,10 +9764,10 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C254" s="13"/>
       <c r="D254" s="39"/>
@@ -9798,10 +9784,10 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C255" s="13"/>
       <c r="D255" s="39">
@@ -9818,13 +9804,13 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>39965</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -9842,13 +9828,13 @@
       <c r="I256" s="9"/>
       <c r="J256" s="11"/>
       <c r="K256" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C257" s="13"/>
       <c r="D257" s="39">
@@ -9865,13 +9851,13 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f>EDATE(A256,1)</f>
         <v>39995</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C258" s="13">
         <v>1.25</v>
@@ -9890,13 +9876,13 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="8"/>
         <v>40026</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C259" s="13">
         <v>1.25</v>
@@ -9914,13 +9900,13 @@
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
       <c r="K259" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C260" s="13"/>
       <c r="D260" s="39"/>
@@ -9939,10 +9925,10 @@
         <v>40042</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C261" s="13"/>
       <c r="D261" s="39"/>
@@ -9961,10 +9947,10 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39"/>
@@ -9983,10 +9969,10 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="39">
@@ -10003,13 +9989,13 @@
       <c r="J263" s="11"/>
       <c r="K263" s="51"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A259,1)</f>
         <v>40057</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C264" s="13">
         <v>1.25</v>
@@ -10027,13 +10013,13 @@
       <c r="I264" s="9"/>
       <c r="J264" s="11"/>
       <c r="K264" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C265" s="13"/>
       <c r="D265" s="39"/>
@@ -10052,10 +10038,10 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C266" s="13"/>
       <c r="D266" s="39">
@@ -10072,13 +10058,13 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>40087</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C267" s="13">
         <v>1.25</v>
@@ -10099,10 +10085,10 @@
         <v>40087</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C268" s="13"/>
       <c r="D268" s="39"/>
@@ -10121,10 +10107,10 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="39"/>
@@ -10140,13 +10126,13 @@
       <c r="I269" s="9"/>
       <c r="J269" s="11"/>
       <c r="K269" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C270" s="13"/>
       <c r="D270" s="39"/>
@@ -10162,13 +10148,13 @@
       <c r="I270" s="9"/>
       <c r="J270" s="11"/>
       <c r="K270" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C271" s="13"/>
       <c r="D271" s="39">
@@ -10185,13 +10171,13 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A267,1)</f>
         <v>40118</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C272" s="13">
         <v>1.25</v>
@@ -10209,13 +10195,13 @@
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="39">
@@ -10232,13 +10218,13 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40148</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -10259,10 +10245,10 @@
         <v>40151</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39"/>
@@ -10275,13 +10261,13 @@
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
       <c r="K275" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="39"/>
@@ -10292,13 +10278,13 @@
       <c r="I276" s="9"/>
       <c r="J276" s="11"/>
       <c r="K276" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C277" s="13"/>
       <c r="D277" s="39">
@@ -10311,12 +10297,12 @@
       <c r="I277" s="9"/>
       <c r="J277" s="11"/>
       <c r="K277" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="48" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -10329,13 +10315,13 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A274,1)</f>
         <v>40179</v>
       </c>
       <c r="B279" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C279" s="13">
         <v>1.25</v>
@@ -10351,13 +10337,13 @@
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C280" s="13"/>
       <c r="D280" s="39"/>
@@ -10370,13 +10356,13 @@
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="39"/>
@@ -10389,13 +10375,13 @@
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
       <c r="K281" s="20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C282" s="13"/>
       <c r="D282" s="39"/>
@@ -10408,13 +10394,13 @@
       <c r="I282" s="9"/>
       <c r="J282" s="11"/>
       <c r="K282" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C283" s="13"/>
       <c r="D283" s="39"/>
@@ -10427,13 +10413,13 @@
       <c r="I283" s="9"/>
       <c r="J283" s="11"/>
       <c r="K283" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C284" s="13"/>
       <c r="D284" s="39"/>
@@ -10444,13 +10430,13 @@
       <c r="I284" s="9"/>
       <c r="J284" s="11"/>
       <c r="K284" s="20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C285" s="13"/>
       <c r="D285" s="39">
@@ -10464,13 +10450,13 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A279,1)</f>
         <v>40210</v>
       </c>
       <c r="B286" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C286" s="13">
         <v>1.25</v>
@@ -10486,13 +10472,13 @@
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
       <c r="K286" s="20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C287" s="13"/>
       <c r="D287" s="39"/>
@@ -10508,10 +10494,10 @@
         <v>40224</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C288" s="13"/>
       <c r="D288" s="39">
@@ -10525,13 +10511,13 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>40238</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C289" s="13">
         <v>1.25</v>
@@ -10552,10 +10538,10 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C290" s="13"/>
       <c r="D290" s="39"/>
@@ -10571,10 +10557,10 @@
         <v>40254</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C291" s="13"/>
       <c r="D291" s="39"/>
@@ -10590,13 +10576,13 @@
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
       <c r="K291" s="51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="39">
@@ -10610,13 +10596,13 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A289,1)</f>
         <v>40269</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C293" s="13">
         <v>1.25</v>
@@ -10635,10 +10621,10 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C294" s="13"/>
       <c r="D294" s="39"/>
@@ -10652,10 +10638,10 @@
         <v>40296</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="39"/>
@@ -10666,13 +10652,13 @@
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
       <c r="K295" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C296" s="13"/>
       <c r="D296" s="39">
@@ -10686,13 +10672,13 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f>EDATE(A293,1)</f>
         <v>40299</v>
       </c>
       <c r="B297" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C297" s="13">
         <v>1.25</v>
@@ -10713,10 +10699,10 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39">
@@ -10733,13 +10719,13 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>40330</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C299" s="13">
         <v>1.25</v>
@@ -10757,13 +10743,13 @@
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C300" s="13"/>
       <c r="D300" s="39"/>
@@ -10782,10 +10768,10 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="39"/>
@@ -10804,10 +10790,10 @@
         <v>40353</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C302" s="13"/>
       <c r="D302" s="39">
@@ -10824,13 +10810,13 @@
       <c r="J302" s="11"/>
       <c r="K302" s="51"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A299,1)</f>
         <v>40360</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C303" s="13">
         <v>1.25</v>
@@ -10848,13 +10834,13 @@
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
       <c r="K303" s="20" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C304" s="13"/>
       <c r="D304" s="39"/>
@@ -10870,13 +10856,13 @@
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="39">
@@ -10893,13 +10879,13 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A303,1)</f>
         <v>40391</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C306" s="13">
         <v>1.25</v>
@@ -10917,32 +10903,32 @@
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="39">
-        <v>1</v>
-      </c>
+      <c r="D307" s="39"/>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
       <c r="G307" s="13"/>
-      <c r="H307" s="39"/>
+      <c r="H307" s="39">
+        <v>1</v>
+      </c>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
       <c r="K307" s="51">
         <v>40414</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C308" s="13"/>
       <c r="D308" s="39">
@@ -10956,13 +10942,13 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A306,1)</f>
         <v>40422</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C309" s="13">
         <v>1.25</v>
@@ -10979,16 +10965,16 @@
       </c>
       <c r="I309" s="9"/>
       <c r="J309" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K309" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39">
@@ -11001,13 +10987,13 @@
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C311" s="13"/>
       <c r="D311" s="39">
@@ -11021,13 +11007,13 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A309,1)</f>
         <v>40452</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C312" s="13">
         <v>1.25</v>
@@ -11047,13 +11033,13 @@
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C313" s="13"/>
       <c r="D313" s="39">
@@ -11066,13 +11052,13 @@
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C314" s="13"/>
       <c r="D314" s="39">
@@ -11086,13 +11072,13 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>40483</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C315" s="13">
         <v>1.25</v>
@@ -11112,13 +11098,13 @@
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
       <c r="K315" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C316" s="13"/>
       <c r="D316" s="39">
@@ -11131,13 +11117,13 @@
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
       <c r="K316" s="20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C317" s="13"/>
       <c r="D317" s="39">
@@ -11151,13 +11137,13 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A315,1)</f>
         <v>40513</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C318" s="13">
         <v>1.25</v>
@@ -11176,9 +11162,9 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -11194,13 +11180,13 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>40544</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C320" s="13">
         <v>1.25</v>
@@ -11216,13 +11202,13 @@
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39">
@@ -11239,13 +11225,13 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40575</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C322" s="13">
         <v>1.25</v>
@@ -11261,13 +11247,13 @@
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
       <c r="K322" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C323" s="13"/>
       <c r="D323" s="39">
@@ -11284,13 +11270,13 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>40603</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C324" s="13">
         <v>1.25</v>
@@ -11309,13 +11295,13 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C325" s="13">
         <v>1.25</v>
@@ -11334,13 +11320,13 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="8"/>
         <v>40664</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C326" s="13">
         <v>1.25</v>
@@ -11359,13 +11345,13 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>40695</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C327" s="13">
         <v>1.25</v>
@@ -11383,13 +11369,13 @@
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
       <c r="K327" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="39">
@@ -11406,13 +11392,13 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>40725</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C329" s="13">
         <v>1.25</v>
@@ -11431,13 +11417,13 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C330" s="13">
         <v>1.25</v>
@@ -11456,13 +11442,13 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C331" s="13">
         <v>1.25</v>
@@ -11481,13 +11467,13 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f t="shared" si="8"/>
         <v>40817</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C332" s="13">
         <v>1.25</v>
@@ -11506,13 +11492,13 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" si="8"/>
         <v>40848</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C333" s="13">
         <v>1.25</v>
@@ -11530,13 +11516,13 @@
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
       <c r="K333" s="20" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C334" s="13"/>
       <c r="D334" s="39">
@@ -11553,13 +11539,13 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A333,1)</f>
         <v>40878</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C335" s="13">
         <v>1.25</v>
@@ -11578,9 +11564,9 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="48" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -11596,13 +11582,13 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40909</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C337" s="13">
         <v>1.25</v>
@@ -11620,13 +11606,13 @@
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
       <c r="K337" s="20" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C338" s="13"/>
       <c r="D338" s="39"/>
@@ -11637,13 +11623,13 @@
       <c r="I338" s="9"/>
       <c r="J338" s="11"/>
       <c r="K338" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C339" s="13"/>
       <c r="D339" s="39">
@@ -11657,13 +11643,13 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40940</v>
       </c>
       <c r="B340" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C340" s="13">
         <v>1.25</v>
@@ -11682,13 +11668,13 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f t="shared" si="8"/>
         <v>40969</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C341" s="13">
         <v>1.25</v>
@@ -11707,13 +11693,13 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" si="8"/>
         <v>41000</v>
       </c>
       <c r="B342" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C342" s="13">
         <v>1.25</v>
@@ -11732,13 +11718,13 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="8"/>
         <v>41030</v>
       </c>
       <c r="B343" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C343" s="13">
         <v>1.25</v>
@@ -11756,13 +11742,13 @@
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C344" s="13"/>
       <c r="D344" s="39"/>
@@ -11775,13 +11761,13 @@
       <c r="I344" s="9"/>
       <c r="J344" s="11"/>
       <c r="K344" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C345" s="13"/>
       <c r="D345" s="39">
@@ -11795,13 +11781,13 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A343,1)</f>
         <v>41061</v>
       </c>
       <c r="B346" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C346" s="13">
         <v>1.25</v>
@@ -11820,13 +11806,13 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="8"/>
         <v>41091</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C347" s="13">
         <v>1.25</v>
@@ -11844,13 +11830,13 @@
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C348" s="13"/>
       <c r="D348" s="39"/>
@@ -11861,13 +11847,13 @@
       <c r="I348" s="9"/>
       <c r="J348" s="11"/>
       <c r="K348" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C349" s="13"/>
       <c r="D349" s="39"/>
@@ -11880,13 +11866,13 @@
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C350" s="13"/>
       <c r="D350" s="39">
@@ -11900,13 +11886,13 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A347,1)</f>
         <v>41122</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C351" s="13">
         <v>1.25</v>
@@ -11925,13 +11911,13 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f t="shared" si="8"/>
         <v>41153</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C352" s="13">
         <v>1.25</v>
@@ -11947,13 +11933,13 @@
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
       <c r="K352" s="52" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C353" s="13"/>
       <c r="D353" s="39">
@@ -11970,13 +11956,13 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>41183</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C354" s="13">
         <v>1.25</v>
@@ -11995,7 +11981,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" ref="A355:A356" si="9">EDATE(A354,1)</f>
         <v>41214</v>
@@ -12016,13 +12002,13 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="9"/>
         <v>41244</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C356" s="13">
         <v>1.25</v>
@@ -12041,9 +12027,9 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="48" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -12059,13 +12045,13 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>41275</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C358" s="13">
         <v>1.25</v>
@@ -12084,13 +12070,13 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f t="shared" ref="A359:A431" si="10">EDATE(A358,1)</f>
         <v>41306</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C359" s="13">
         <v>1.25</v>
@@ -12106,13 +12092,13 @@
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C360" s="13">
         <v>1.25</v>
@@ -12128,13 +12114,13 @@
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C361" s="13">
         <v>1.25</v>
@@ -12150,13 +12136,13 @@
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
       <c r="K361" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C362" s="13"/>
       <c r="D362" s="39">
@@ -12173,13 +12159,13 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A359,1)</f>
         <v>41334</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C363" s="13">
         <v>1.25</v>
@@ -12198,13 +12184,13 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="10"/>
         <v>41365</v>
       </c>
       <c r="B364" s="20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C364" s="13">
         <v>1.25</v>
@@ -12222,13 +12208,13 @@
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
       <c r="K364" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C365" s="13"/>
       <c r="D365" s="39">
@@ -12245,13 +12231,13 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41395</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C366" s="13">
         <v>1.25</v>
@@ -12268,10 +12254,10 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C367" s="13"/>
       <c r="D367" s="39">
@@ -12288,13 +12274,13 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41426</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C368" s="13">
         <v>1.25</v>
@@ -12312,13 +12298,13 @@
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
       <c r="K368" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C369" s="13"/>
       <c r="D369" s="39">
@@ -12335,13 +12321,13 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>41456</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C370" s="13">
         <v>1.25</v>
@@ -12360,13 +12346,13 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C371" s="13">
         <v>1.25</v>
@@ -12385,13 +12371,13 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C372" s="13">
         <v>1.25</v>
@@ -12410,13 +12396,13 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f t="shared" si="10"/>
         <v>41548</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C373" s="13">
         <v>1.25</v>
@@ -12435,13 +12421,13 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="10"/>
         <v>41579</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C374" s="13">
         <v>1.25</v>
@@ -12460,13 +12446,13 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C375" s="13">
         <v>1.25</v>
@@ -12485,9 +12471,9 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="48" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -12503,13 +12489,13 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41640</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C377" s="13">
         <v>1.25</v>
@@ -12528,13 +12514,13 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="10"/>
         <v>41671</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C378" s="13">
         <v>1.25</v>
@@ -12553,13 +12539,13 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f t="shared" si="10"/>
         <v>41699</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C379" s="13">
         <v>1.25</v>
@@ -12578,13 +12564,13 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="10"/>
         <v>41730</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C380" s="13">
         <v>1.25</v>
@@ -12603,13 +12589,13 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="10"/>
         <v>41760</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C381" s="13">
         <v>1.25</v>
@@ -12628,13 +12614,13 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f t="shared" si="10"/>
         <v>41791</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C382" s="13">
         <v>1.25</v>
@@ -12653,13 +12639,13 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" si="10"/>
         <v>41821</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C383" s="13">
         <v>1.25</v>
@@ -12678,13 +12664,13 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="10"/>
         <v>41852</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C384" s="13">
         <v>1.25</v>
@@ -12703,13 +12689,13 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="10"/>
         <v>41883</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C385" s="13">
         <v>1.25</v>
@@ -12728,13 +12714,13 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="10"/>
         <v>41913</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C386" s="13">
         <v>1.25</v>
@@ -12753,13 +12739,13 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="10"/>
         <v>41944</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C387" s="13">
         <v>1.25</v>
@@ -12778,13 +12764,13 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="10"/>
         <v>41974</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C388" s="13">
         <v>1.25</v>
@@ -12803,10 +12789,10 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C389" s="13"/>
       <c r="D389" s="39"/>
@@ -12822,12 +12808,12 @@
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
       <c r="K389" s="49" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="48" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -12843,13 +12829,13 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>42005</v>
       </c>
       <c r="B391" s="20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C391" s="13">
         <v>1.25</v>
@@ -12868,10 +12854,10 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C392" s="13"/>
       <c r="D392" s="39"/>
@@ -12890,13 +12876,13 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A391,1)</f>
         <v>42036</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C393" s="13">
         <v>1.25</v>
@@ -12915,10 +12901,10 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C394" s="13"/>
       <c r="D394" s="39"/>
@@ -12934,16 +12920,16 @@
       <c r="I394" s="9"/>
       <c r="J394" s="11"/>
       <c r="K394" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>42064</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C395" s="13">
         <v>1.25</v>
@@ -12962,13 +12948,13 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f t="shared" si="10"/>
         <v>42095</v>
       </c>
       <c r="B396" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C396" s="13">
         <v>1.25</v>
@@ -12987,10 +12973,10 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C397" s="13"/>
       <c r="D397" s="39"/>
@@ -13006,16 +12992,16 @@
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
       <c r="K397" s="20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f>EDATE(A396,1)</f>
         <v>42125</v>
       </c>
       <c r="B398" s="20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C398" s="13">
         <v>1.25</v>
@@ -13034,10 +13020,10 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C399" s="13"/>
       <c r="D399" s="39"/>
@@ -13053,16 +13039,16 @@
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
       <c r="K399" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>42156</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C400" s="13">
         <v>1.25</v>
@@ -13081,10 +13067,10 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C401" s="13"/>
       <c r="D401" s="39"/>
@@ -13100,16 +13086,16 @@
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
       <c r="K401" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>42186</v>
       </c>
       <c r="B402" s="20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C402" s="13">
         <v>1.25</v>
@@ -13128,13 +13114,13 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="10"/>
         <v>42217</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C403" s="13">
         <v>1.25</v>
@@ -13153,10 +13139,10 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C404" s="13"/>
       <c r="D404" s="39"/>
@@ -13172,16 +13158,16 @@
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
       <c r="K404" s="53" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>42248</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C405" s="13">
         <v>1.25</v>
@@ -13200,10 +13186,10 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C406" s="13"/>
       <c r="D406" s="39"/>
@@ -13219,16 +13205,16 @@
       <c r="I406" s="9"/>
       <c r="J406" s="11"/>
       <c r="K406" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>42278</v>
       </c>
       <c r="B407" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C407" s="13">
         <v>1.25</v>
@@ -13247,10 +13233,10 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C408" s="13"/>
       <c r="D408" s="39"/>
@@ -13269,13 +13255,13 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>42309</v>
       </c>
       <c r="B409" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C409" s="13">
         <v>1.25</v>
@@ -13294,10 +13280,10 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C410" s="13"/>
       <c r="D410" s="39"/>
@@ -13313,16 +13299,16 @@
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
       <c r="K410" s="20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>42339</v>
       </c>
       <c r="B411" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C411" s="13">
         <v>1.25</v>
@@ -13341,9 +13327,9 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="48" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -13359,13 +13345,13 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>42370</v>
       </c>
       <c r="B413" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C413" s="13">
         <v>1.25</v>
@@ -13384,10 +13370,10 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C414" s="13"/>
       <c r="D414" s="39"/>
@@ -13403,16 +13389,16 @@
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
       <c r="K414" s="20" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>42401</v>
       </c>
       <c r="B415" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C415" s="13">
         <v>1.25</v>
@@ -13431,10 +13417,10 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C416" s="13"/>
       <c r="D416" s="39"/>
@@ -13450,13 +13436,13 @@
         <v>3</v>
       </c>
       <c r="K416" s="20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C417" s="13"/>
       <c r="D417" s="39"/>
@@ -13475,13 +13461,13 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>42430</v>
       </c>
       <c r="B418" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C418" s="13">
         <v>1.25</v>
@@ -13500,13 +13486,13 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f>EDATE(A418,1)</f>
         <v>42461</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C419" s="13">
         <v>1.25</v>
@@ -13525,13 +13511,13 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f t="shared" si="10"/>
         <v>42491</v>
       </c>
       <c r="B420" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C420" s="13">
         <v>1.25</v>
@@ -13550,13 +13536,13 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="10"/>
         <v>42522</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C421" s="13">
         <v>1.25</v>
@@ -13575,13 +13561,13 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="10"/>
         <v>42552</v>
       </c>
       <c r="B422" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C422" s="13">
         <v>1.25</v>
@@ -13600,13 +13586,13 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f t="shared" si="10"/>
         <v>42583</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C423" s="13">
         <v>1.25</v>
@@ -13622,13 +13608,13 @@
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
       <c r="K423" s="20" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C424" s="13"/>
       <c r="D424" s="39">
@@ -13645,13 +13631,13 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42614</v>
       </c>
       <c r="B425" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C425" s="13">
         <v>1.25</v>
@@ -13670,13 +13656,13 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="10"/>
         <v>42644</v>
       </c>
       <c r="B426" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C426" s="13">
         <v>1.25</v>
@@ -13694,13 +13680,13 @@
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
       <c r="K426" s="20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C427" s="13"/>
       <c r="D427" s="39"/>
@@ -13719,10 +13705,10 @@
         <v>42654</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C428" s="13"/>
       <c r="D428" s="39"/>
@@ -13738,13 +13724,13 @@
       <c r="I428" s="9"/>
       <c r="J428" s="11"/>
       <c r="K428" s="20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C429" s="13"/>
       <c r="D429" s="39">
@@ -13761,13 +13747,13 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>42675</v>
       </c>
       <c r="B430" s="20" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C430" s="13">
         <v>1.25</v>
@@ -13786,13 +13772,13 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="10"/>
         <v>42705</v>
       </c>
       <c r="B431" s="20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C431" s="13">
         <v>1.25</v>
@@ -13811,9 +13797,9 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="48" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -13829,7 +13815,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f>EDATE(A431,1)</f>
         <v>42736</v>
@@ -13850,13 +13836,13 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A433,1)</f>
         <v>42767</v>
       </c>
       <c r="B434" s="20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C434" s="13">
         <v>1.25</v>
@@ -13875,13 +13861,13 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" ref="A435:A452" si="11">EDATE(A434,1)</f>
         <v>42795</v>
       </c>
       <c r="B435" s="20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C435" s="13">
         <v>1.25</v>
@@ -13900,13 +13886,13 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="11"/>
         <v>42826</v>
       </c>
       <c r="B436" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C436" s="13">
         <v>1.25</v>
@@ -13924,13 +13910,13 @@
       <c r="I436" s="9"/>
       <c r="J436" s="11"/>
       <c r="K436" s="20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C437" s="13"/>
       <c r="D437" s="39"/>
@@ -13941,13 +13927,13 @@
       <c r="I437" s="9"/>
       <c r="J437" s="11"/>
       <c r="K437" s="20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C438" s="13"/>
       <c r="D438" s="39"/>
@@ -13960,13 +13946,13 @@
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
       <c r="K438" s="20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C439" s="13"/>
       <c r="D439" s="39"/>
@@ -13977,13 +13963,13 @@
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
       <c r="K439" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C440" s="13"/>
       <c r="D440" s="39">
@@ -13997,13 +13983,13 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>42856</v>
       </c>
       <c r="B441" s="20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C441" s="13">
         <v>1.25</v>
@@ -14022,13 +14008,13 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f t="shared" si="11"/>
         <v>42887</v>
       </c>
       <c r="B442" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C442" s="13">
         <v>1.25</v>
@@ -14046,13 +14032,13 @@
       <c r="I442" s="9"/>
       <c r="J442" s="11"/>
       <c r="K442" s="20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C443" s="13"/>
       <c r="D443" s="39"/>
@@ -14068,10 +14054,10 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C444" s="13"/>
       <c r="D444" s="39">
@@ -14085,13 +14071,13 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f>EDATE(A442,1)</f>
         <v>42917</v>
       </c>
       <c r="B445" s="20" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C445" s="13">
         <v>1.25</v>
@@ -14110,13 +14096,13 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="11"/>
         <v>42948</v>
       </c>
       <c r="B446" s="20" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C446" s="13">
         <v>1.25</v>
@@ -14135,13 +14121,13 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="11"/>
         <v>42979</v>
       </c>
       <c r="B447" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C447" s="13">
         <v>1.25</v>
@@ -14159,13 +14145,13 @@
       <c r="I447" s="9"/>
       <c r="J447" s="11"/>
       <c r="K447" s="20" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C448" s="13"/>
       <c r="D448" s="39"/>
@@ -14184,10 +14170,10 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C449" s="13"/>
       <c r="D449" s="39">
@@ -14204,13 +14190,13 @@
       <c r="J449" s="11"/>
       <c r="K449" s="51"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
       </c>
       <c r="B450" s="20" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C450" s="13">
         <v>1.25</v>
@@ -14229,7 +14215,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f>EDATE(A450,1)</f>
         <v>43040</v>
@@ -14250,7 +14236,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f t="shared" si="11"/>
         <v>43070</v>
@@ -14271,9 +14257,9 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="48" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -14289,13 +14275,13 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>43101</v>
       </c>
       <c r="B454" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C454" s="13">
         <v>1.25</v>
@@ -14313,13 +14299,13 @@
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
       <c r="K454" s="20" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C455" s="13"/>
       <c r="D455" s="39"/>
@@ -14336,10 +14322,10 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C456" s="13"/>
       <c r="D456" s="39"/>
@@ -14353,16 +14339,16 @@
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
       <c r="K456" s="20" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>43132</v>
       </c>
       <c r="B457" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C457" s="13">
         <v>1.25</v>
@@ -14383,7 +14369,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f>EDATE(A457,1)</f>
         <v>43160</v>
@@ -14404,7 +14390,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" ref="A459:A460" si="12">EDATE(A458,1)</f>
         <v>43191</v>
@@ -14425,13 +14411,13 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="12"/>
         <v>43221</v>
       </c>
       <c r="B460" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C460" s="13">
         <v>1.25</v>
@@ -14449,13 +14435,13 @@
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
       <c r="K460" s="20" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C461" s="13"/>
       <c r="D461" s="39"/>
@@ -14474,10 +14460,10 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C462" s="13"/>
       <c r="D462" s="39">
@@ -14494,13 +14480,13 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>43252</v>
       </c>
       <c r="B463" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C463" s="13">
         <v>1.25</v>
@@ -14519,13 +14505,13 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f>EDATE(A463,1)</f>
         <v>43282</v>
       </c>
       <c r="B464" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C464" s="13">
         <v>1.25</v>
@@ -14544,13 +14530,13 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f>EDATE(A464,1)</f>
         <v>43313</v>
       </c>
       <c r="B465" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C465" s="13">
         <v>1.25</v>
@@ -14569,13 +14555,13 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f t="shared" ref="A466:A470" si="13">EDATE(A465,1)</f>
         <v>43344</v>
       </c>
       <c r="B466" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C466" s="13">
         <v>1.25</v>
@@ -14594,16 +14580,16 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="13"/>
         <v>43374</v>
       </c>
       <c r="B467" s="20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C467" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D467" s="39">
         <v>1.2690000000000001</v>
@@ -14612,17 +14598,17 @@
       <c r="F467" s="20"/>
       <c r="G467" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H467" s="39"/>
       <c r="I467" s="9"/>
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="52" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C468" s="13"/>
       <c r="D468" s="39"/>
@@ -14636,16 +14622,16 @@
       <c r="I468" s="9"/>
       <c r="J468" s="11"/>
       <c r="K468" s="49" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f>EDATE(A467,1)</f>
         <v>43405</v>
       </c>
       <c r="B469" s="20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C469" s="13">
         <v>1.25</v>
@@ -14664,13 +14650,13 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="13"/>
         <v>43435</v>
       </c>
       <c r="B470" s="20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C470" s="13">
         <v>1.25</v>
@@ -14689,9 +14675,9 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="48" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -14707,7 +14693,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>43466</v>
@@ -14728,13 +14714,13 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f>EDATE(A472,1)</f>
         <v>43497</v>
       </c>
       <c r="B473" s="20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C473" s="13">
         <v>1.25</v>
@@ -14753,10 +14739,10 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C474" s="13"/>
       <c r="D474" s="39"/>
@@ -14770,13 +14756,13 @@
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
       <c r="K474" s="20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C475" s="13"/>
       <c r="D475" s="39"/>
@@ -14790,16 +14776,16 @@
       <c r="I475" s="9"/>
       <c r="J475" s="11"/>
       <c r="K475" s="20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f>EDATE(A473,1)</f>
         <v>43525</v>
       </c>
       <c r="B476" s="20" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C476" s="13">
         <v>1.25</v>
@@ -14818,13 +14804,13 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f t="shared" ref="A477:A484" si="14">EDATE(A476,1)</f>
         <v>43556</v>
       </c>
       <c r="B477" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C477" s="13">
         <v>1.25</v>
@@ -14845,10 +14831,10 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C478" s="13"/>
       <c r="D478" s="39">
@@ -14863,18 +14849,18 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>69.375</v>
+        <v>70.166999999999916</v>
       </c>
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>43586</v>
       </c>
       <c r="B479" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C479" s="13">
         <v>1.25</v>
@@ -14893,13 +14879,13 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f t="shared" si="14"/>
         <v>43617</v>
       </c>
       <c r="B480" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C480" s="13">
         <v>1.25</v>
@@ -14918,13 +14904,13 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f t="shared" si="14"/>
         <v>43647</v>
       </c>
       <c r="B481" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C481" s="13">
         <v>1.25</v>
@@ -14943,13 +14929,13 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f t="shared" si="14"/>
         <v>43678</v>
       </c>
       <c r="B482" s="20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C482" s="13">
         <v>1.25</v>
@@ -14968,13 +14954,13 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f t="shared" si="14"/>
         <v>43709</v>
       </c>
       <c r="B483" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C483" s="13">
         <v>1.25</v>
@@ -14993,35 +14979,35 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <f t="shared" si="14"/>
         <v>43739</v>
       </c>
-      <c r="B484" s="54" t="s">
-        <v>386</v>
+      <c r="B484" s="20" t="s">
+        <v>382</v>
       </c>
       <c r="C484" s="13">
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D484" s="39"/>
       <c r="E484" s="9"/>
       <c r="F484" s="20"/>
       <c r="G484" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H484" s="39"/>
       <c r="I484" s="9"/>
       <c r="J484" s="11"/>
       <c r="K484" s="49" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C485" s="13"/>
       <c r="D485" s="39">
@@ -15038,13 +15024,13 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f>EDATE(A484,1)</f>
         <v>43770</v>
       </c>
       <c r="B486" s="20" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C486" s="13">
         <v>1.25</v>
@@ -15063,35 +15049,35 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f>EDATE(A486,1)</f>
         <v>43800</v>
       </c>
       <c r="B487" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C487" s="13">
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="D487" s="39"/>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
       <c r="G487" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+        <v>1.0420000000000003</v>
       </c>
       <c r="H487" s="39"/>
       <c r="I487" s="9"/>
       <c r="J487" s="11"/>
       <c r="K487" s="53" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C488" s="13"/>
       <c r="D488" s="39">
@@ -15108,10 +15094,10 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C489" s="13"/>
       <c r="D489" s="39"/>
@@ -15125,12 +15111,12 @@
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
       <c r="K489" s="53" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="48" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -15146,13 +15132,13 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f>EDATE(A487,1)</f>
         <v>43831</v>
       </c>
       <c r="B491" s="20" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C491" s="13">
         <v>1.25</v>
@@ -15168,13 +15154,13 @@
       <c r="I491" s="9"/>
       <c r="J491" s="11"/>
       <c r="K491" s="52" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C492" s="13"/>
       <c r="D492" s="39"/>
@@ -15188,13 +15174,13 @@
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
       <c r="K492" s="52" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C493" s="13"/>
       <c r="D493" s="39">
@@ -15211,10 +15197,10 @@
       <c r="J493" s="11"/>
       <c r="K493" s="52"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C494" s="13"/>
       <c r="D494" s="39"/>
@@ -15230,16 +15216,16 @@
       <c r="I494" s="9"/>
       <c r="J494" s="11"/>
       <c r="K494" s="52" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f>EDATE(A491,1)</f>
         <v>43862</v>
       </c>
       <c r="B495" s="20" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C495" s="13">
         <v>1.25</v>
@@ -15258,7 +15244,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A504" si="15">EDATE(A495,1)</f>
         <v>43891</v>
@@ -15279,7 +15265,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f t="shared" si="15"/>
         <v>43922</v>
@@ -15300,7 +15286,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f t="shared" si="15"/>
         <v>43952</v>
@@ -15321,7 +15307,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f t="shared" si="15"/>
         <v>43983</v>
@@ -15342,7 +15328,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f t="shared" si="15"/>
         <v>44013</v>
@@ -15363,7 +15349,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="15"/>
         <v>44044</v>
@@ -15384,7 +15370,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f t="shared" si="15"/>
         <v>44075</v>
@@ -15405,7 +15391,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f>EDATE(A502,1)</f>
         <v>44105</v>
@@ -15426,7 +15412,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f t="shared" si="15"/>
         <v>44136</v>
@@ -15447,13 +15433,13 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A504,1)</f>
         <v>44166</v>
       </c>
       <c r="B505" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C505" s="13">
         <v>1.25</v>
@@ -15472,9 +15458,9 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="48" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -15490,7 +15476,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>44197</v>
@@ -15511,7 +15497,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f>EDATE(A507,1)</f>
         <v>44228</v>
@@ -15532,7 +15518,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f t="shared" ref="A509:A518" si="16">EDATE(A508,1)</f>
         <v>44256</v>
@@ -15553,7 +15539,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f t="shared" si="16"/>
         <v>44287</v>
@@ -15574,7 +15560,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <f t="shared" si="16"/>
         <v>44317</v>
@@ -15595,7 +15581,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <f t="shared" si="16"/>
         <v>44348</v>
@@ -15616,7 +15602,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <f t="shared" si="16"/>
         <v>44378</v>
@@ -15637,7 +15623,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <f t="shared" si="16"/>
         <v>44409</v>
@@ -15658,7 +15644,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f t="shared" si="16"/>
         <v>44440</v>
@@ -15679,7 +15665,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f t="shared" si="16"/>
         <v>44470</v>
@@ -15700,7 +15686,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <f t="shared" si="16"/>
         <v>44501</v>
@@ -15721,13 +15707,13 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f t="shared" si="16"/>
         <v>44531</v>
       </c>
       <c r="B518" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C518" s="13">
         <v>1.25</v>
@@ -15743,13 +15729,13 @@
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
       <c r="K518" s="20" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C519" s="13"/>
       <c r="D519" s="39">
@@ -15766,9 +15752,9 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="48" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15784,7 +15770,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>44562</v>
@@ -15805,7 +15791,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f>EDATE(A521,1)</f>
         <v>44593</v>
@@ -15826,7 +15812,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <f t="shared" ref="A523:A528" si="17">EDATE(A522,1)</f>
         <v>44621</v>
@@ -15847,13 +15833,13 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f t="shared" si="17"/>
         <v>44652</v>
       </c>
       <c r="B524" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C524" s="13">
         <v>1.25</v>
@@ -15874,10 +15860,10 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C525" s="13"/>
       <c r="D525" s="39"/>
@@ -15893,7 +15879,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f>EDATE(A524,1)</f>
         <v>44682</v>
@@ -15914,7 +15900,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <f t="shared" si="17"/>
         <v>44713</v>
@@ -15935,13 +15921,13 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <f t="shared" si="17"/>
         <v>44743</v>
       </c>
       <c r="B528" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C528" s="13">
         <v>1.25</v>
@@ -15959,13 +15945,17 @@
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
       <c r="K528" s="20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A529" s="40"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A529" s="40">
+        <v>44774</v>
+      </c>
       <c r="B529" s="20"/>
-      <c r="C529" s="13"/>
+      <c r="C529" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D529" s="39"/>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
@@ -15975,10 +15965,14 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A530" s="40"/>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A530" s="40">
+        <v>44805</v>
+      </c>
       <c r="B530" s="20"/>
-      <c r="C530" s="13"/>
+      <c r="C530" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D530" s="39"/>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
@@ -15988,10 +15982,14 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A531" s="40"/>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A531" s="40">
+        <v>44835</v>
+      </c>
       <c r="B531" s="20"/>
-      <c r="C531" s="13"/>
+      <c r="C531" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D531" s="39"/>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
@@ -16001,10 +15999,14 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" s="40"/>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A532" s="40">
+        <v>44866</v>
+      </c>
       <c r="B532" s="20"/>
-      <c r="C532" s="13"/>
+      <c r="C532" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D532" s="39"/>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
@@ -16014,11 +16016,19 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="40"/>
-      <c r="B533" s="20"/>
-      <c r="C533" s="13"/>
-      <c r="D533" s="39"/>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A533" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B533" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C533" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D533" s="39">
+        <v>5</v>
+      </c>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
       <c r="G533" s="13"/>
@@ -16027,8 +16037,10 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A534" s="40"/>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A534" s="48" t="s">
+        <v>405</v>
+      </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
       <c r="D534" s="39"/>
@@ -16043,40 +16055,50 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="40"/>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A535" s="40">
+        <v>44927</v>
+      </c>
       <c r="B535" s="20"/>
-      <c r="C535" s="13"/>
+      <c r="C535" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D535" s="39"/>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
-      <c r="G535" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G535" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H535" s="39"/>
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A536" s="40"/>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A536" s="40">
+        <v>44958</v>
+      </c>
       <c r="B536" s="20"/>
-      <c r="C536" s="13"/>
+      <c r="C536" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D536" s="39"/>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G536" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H536" s="39"/>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A537" s="40"/>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A537" s="40">
+        <v>44986</v>
+      </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
       <c r="D537" s="39"/>
@@ -16091,8 +16113,10 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40"/>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A538" s="40">
+        <v>45017</v>
+      </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
       <c r="D538" s="39"/>
@@ -16107,8 +16131,10 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="40"/>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A539" s="40">
+        <v>45047</v>
+      </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
       <c r="D539" s="39"/>
@@ -16123,8 +16149,10 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" s="40"/>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A540" s="40">
+        <v>45078</v>
+      </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
       <c r="D540" s="39"/>
@@ -16139,8 +16167,10 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A541" s="40"/>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A541" s="40">
+        <v>45108</v>
+      </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
       <c r="D541" s="39"/>
@@ -16155,8 +16185,10 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A542" s="40"/>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A542" s="40">
+        <v>45139</v>
+      </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
       <c r="D542" s="39"/>
@@ -16171,8 +16203,10 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="40"/>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A543" s="40">
+        <v>45170</v>
+      </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
       <c r="D543" s="39"/>
@@ -16187,8 +16221,10 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A544" s="40"/>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A544" s="40">
+        <v>45200</v>
+      </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
       <c r="D544" s="39"/>
@@ -16203,8 +16239,10 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A545" s="40"/>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A545" s="40">
+        <v>45231</v>
+      </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
       <c r="D545" s="39"/>
@@ -16219,8 +16257,10 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" s="40"/>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A546" s="40">
+        <v>45261</v>
+      </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
       <c r="D546" s="39"/>
@@ -16235,8 +16275,10 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="40"/>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A547" s="40">
+        <v>45292</v>
+      </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
       <c r="D547" s="39"/>
@@ -16251,8 +16293,10 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A548" s="40"/>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A548" s="40">
+        <v>45323</v>
+      </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
       <c r="D548" s="39"/>
@@ -16267,8 +16311,10 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A549" s="40"/>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A549" s="40">
+        <v>45352</v>
+      </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
       <c r="D549" s="39"/>
@@ -16283,8 +16329,10 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="40"/>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A550" s="40">
+        <v>45383</v>
+      </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
       <c r="D550" s="39"/>
@@ -16299,8 +16347,10 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" s="40"/>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A551" s="40">
+        <v>45413</v>
+      </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
       <c r="D551" s="39"/>
@@ -16315,8 +16365,10 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="40"/>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A552" s="40">
+        <v>45444</v>
+      </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
       <c r="D552" s="39"/>
@@ -16331,8 +16383,10 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A553" s="40"/>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A553" s="40">
+        <v>45474</v>
+      </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
       <c r="D553" s="39"/>
@@ -16347,8 +16401,10 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="40"/>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A554" s="40">
+        <v>45505</v>
+      </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
       <c r="D554" s="39"/>
@@ -16363,8 +16419,10 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40"/>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A555" s="40">
+        <v>45536</v>
+      </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
       <c r="D555" s="39"/>
@@ -16379,8 +16437,10 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40"/>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A556" s="40">
+        <v>45566</v>
+      </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
@@ -16395,8 +16455,10 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="40"/>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A557" s="40">
+        <v>45597</v>
+      </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
       <c r="D557" s="39"/>
@@ -16411,8 +16473,10 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="40"/>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A558" s="40">
+        <v>45627</v>
+      </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
       <c r="D558" s="39"/>
@@ -16427,8 +16491,10 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A559" s="40"/>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A559" s="40">
+        <v>45658</v>
+      </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
       <c r="D559" s="39"/>
@@ -16443,8 +16509,10 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="40"/>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A560" s="40">
+        <v>45689</v>
+      </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
       <c r="D560" s="39"/>
@@ -16459,8 +16527,10 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40"/>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A561" s="40">
+        <v>45717</v>
+      </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
       <c r="D561" s="39"/>
@@ -16475,8 +16545,10 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A562" s="40"/>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A562" s="40">
+        <v>45748</v>
+      </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
@@ -16491,8 +16563,10 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="40"/>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A563" s="40">
+        <v>45778</v>
+      </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
       <c r="D563" s="39"/>
@@ -16507,8 +16581,10 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="40"/>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A564" s="40">
+        <v>45809</v>
+      </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
       <c r="D564" s="39"/>
@@ -16523,7 +16599,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16539,7 +16615,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16555,7 +16631,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16571,7 +16647,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16587,7 +16663,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16603,7 +16679,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16619,7 +16695,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16635,7 +16711,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16651,7 +16727,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16667,21 +16743,37 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="41"/>
-      <c r="B574" s="15"/>
-      <c r="C574" s="42"/>
-      <c r="D574" s="43"/>
-      <c r="E574" s="50"/>
-      <c r="F574" s="15"/>
-      <c r="G574" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H574" s="43"/>
-      <c r="I574" s="50"/>
-      <c r="J574" s="12"/>
-      <c r="K574" s="15"/>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A574" s="40"/>
+      <c r="B574" s="20"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="39"/>
+      <c r="E574" s="9"/>
+      <c r="F574" s="20"/>
+      <c r="G574" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H574" s="39"/>
+      <c r="I574" s="9"/>
+      <c r="J574" s="11"/>
+      <c r="K574" s="20"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A575" s="41"/>
+      <c r="B575" s="15"/>
+      <c r="C575" s="42"/>
+      <c r="D575" s="43"/>
+      <c r="E575" s="50"/>
+      <c r="F575" s="15"/>
+      <c r="G575" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="43"/>
+      <c r="I575" s="50"/>
+      <c r="J575" s="12"/>
+      <c r="K575" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16697,16 +16789,16 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -16727,42 +16819,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="65" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16791,47 +16883,45 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1.125</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1.125</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>52</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.2330000000000001</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>3.7330000000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>4</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16845,14 +16935,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16879,7 +16969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16905,7 +16995,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16931,7 +17021,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16957,7 +17047,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16983,7 +17073,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17009,7 +17099,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17035,7 +17125,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17061,7 +17151,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17081,7 +17171,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17101,7 +17191,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17121,7 +17211,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17142,7 +17232,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17163,7 +17253,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17184,7 +17274,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17205,7 +17295,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17226,7 +17316,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17247,7 +17337,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17268,7 +17358,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17289,7 +17379,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17310,7 +17400,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17331,7 +17421,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17352,7 +17442,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17373,7 +17463,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17394,7 +17484,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17415,7 +17505,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17436,7 +17526,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17457,7 +17547,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17478,7 +17568,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17499,7 +17589,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17520,7 +17610,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17541,7 +17631,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17550,7 +17640,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17559,7 +17649,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17568,7 +17658,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17577,7 +17667,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17586,7 +17676,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17595,7 +17685,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17604,7 +17694,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17613,7 +17703,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17622,7 +17712,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17631,7 +17721,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17640,7 +17730,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17649,7 +17739,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17658,7 +17748,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17667,7 +17757,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17676,7 +17766,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17685,7 +17775,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17694,7 +17784,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17703,7 +17793,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17712,7 +17802,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17721,7 +17811,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17730,7 +17820,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17739,7 +17829,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17748,7 +17838,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17757,7 +17847,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17766,7 +17856,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17775,7 +17865,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17784,7 +17874,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17793,7 +17883,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17802,7 +17892,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/ZALDIVIA, MARIAM F..xlsx
+++ b/REGULAR/OJT/NEW DONE/ZALDIVIA, MARIAM F..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3BBE28-AABB-45FF-B192-8121DDBF5295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE83766F-640A-495E-BA3F-5AD832DDA85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="409">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1253,6 +1253,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>1/3,5,26/2023</t>
+  </si>
+  <si>
+    <t>10/13,14,15</t>
+  </si>
+  <si>
+    <t>1/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -3679,8 +3688,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K575" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K575" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K576" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4058,11 +4067,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K575"/>
+  <dimension ref="A2:K576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A10" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <pane ySplit="4308" topLeftCell="A525" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B536" sqref="B536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4221,7 +4231,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-108.42300000000023</v>
+        <v>-0.62700000000012324</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4231,7 +4241,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>70.166999999999916</v>
+        <v>68.416999999999916</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9703,11 +9713,11 @@
       <c r="C251" s="13">
         <v>1.25</v>
       </c>
-      <c r="D251" s="39">
+      <c r="D251" s="39"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="39">
         <v>4.3079999999999998</v>
       </c>
-      <c r="E251" s="9"/>
-      <c r="F251" s="20"/>
       <c r="G251" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -9730,7 +9740,7 @@
       </c>
       <c r="D252" s="39"/>
       <c r="E252" s="9"/>
-      <c r="F252" s="20"/>
+      <c r="F252" s="39"/>
       <c r="G252" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -9752,7 +9762,7 @@
       <c r="C253" s="13"/>
       <c r="D253" s="39"/>
       <c r="E253" s="9"/>
-      <c r="F253" s="20"/>
+      <c r="F253" s="39"/>
       <c r="G253" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -9772,7 +9782,7 @@
       <c r="C254" s="13"/>
       <c r="D254" s="39"/>
       <c r="E254" s="9"/>
-      <c r="F254" s="20"/>
+      <c r="F254" s="39"/>
       <c r="G254" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -9790,11 +9800,11 @@
         <v>181</v>
       </c>
       <c r="C255" s="13"/>
-      <c r="D255" s="39">
+      <c r="D255" s="39"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="39">
         <v>5.9829999999999997</v>
       </c>
-      <c r="E255" s="9"/>
-      <c r="F255" s="20"/>
       <c r="G255" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -9817,7 +9827,7 @@
       </c>
       <c r="D256" s="39"/>
       <c r="E256" s="9"/>
-      <c r="F256" s="20"/>
+      <c r="F256" s="39"/>
       <c r="G256" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -9837,11 +9847,11 @@
         <v>182</v>
       </c>
       <c r="C257" s="13"/>
-      <c r="D257" s="39">
+      <c r="D257" s="39"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="39">
         <v>6.7290000000000001</v>
       </c>
-      <c r="E257" s="9"/>
-      <c r="F257" s="20"/>
       <c r="G257" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -9862,11 +9872,11 @@
       <c r="C258" s="13">
         <v>1.25</v>
       </c>
-      <c r="D258" s="39">
+      <c r="D258" s="39"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="39">
         <v>1.69</v>
       </c>
-      <c r="E258" s="9"/>
-      <c r="F258" s="20"/>
       <c r="G258" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -9889,7 +9899,7 @@
       </c>
       <c r="D259" s="39"/>
       <c r="E259" s="9"/>
-      <c r="F259" s="20"/>
+      <c r="F259" s="39"/>
       <c r="G259" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -9911,7 +9921,7 @@
       <c r="C260" s="13"/>
       <c r="D260" s="39"/>
       <c r="E260" s="9"/>
-      <c r="F260" s="20"/>
+      <c r="F260" s="39"/>
       <c r="G260" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -9933,7 +9943,7 @@
       <c r="C261" s="13"/>
       <c r="D261" s="39"/>
       <c r="E261" s="9"/>
-      <c r="F261" s="20"/>
+      <c r="F261" s="39"/>
       <c r="G261" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -9955,7 +9965,7 @@
       <c r="C262" s="13"/>
       <c r="D262" s="39"/>
       <c r="E262" s="9"/>
-      <c r="F262" s="20"/>
+      <c r="F262" s="39"/>
       <c r="G262" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -9975,11 +9985,11 @@
         <v>186</v>
       </c>
       <c r="C263" s="13"/>
-      <c r="D263" s="39">
+      <c r="D263" s="39"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="39">
         <v>3.7170000000000001</v>
       </c>
-      <c r="E263" s="9"/>
-      <c r="F263" s="20"/>
       <c r="G263" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10002,7 +10012,7 @@
       </c>
       <c r="D264" s="39"/>
       <c r="E264" s="9"/>
-      <c r="F264" s="20"/>
+      <c r="F264" s="39"/>
       <c r="G264" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10024,7 +10034,7 @@
       <c r="C265" s="13"/>
       <c r="D265" s="39"/>
       <c r="E265" s="9"/>
-      <c r="F265" s="20"/>
+      <c r="F265" s="39"/>
       <c r="G265" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10044,11 +10054,11 @@
         <v>188</v>
       </c>
       <c r="C266" s="13"/>
-      <c r="D266" s="39">
+      <c r="D266" s="39"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="39">
         <v>5.3870000000000005</v>
       </c>
-      <c r="E266" s="9"/>
-      <c r="F266" s="20"/>
       <c r="G266" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10071,7 +10081,7 @@
       </c>
       <c r="D267" s="39"/>
       <c r="E267" s="9"/>
-      <c r="F267" s="20"/>
+      <c r="F267" s="39"/>
       <c r="G267" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10093,7 +10103,7 @@
       <c r="C268" s="13"/>
       <c r="D268" s="39"/>
       <c r="E268" s="9"/>
-      <c r="F268" s="20"/>
+      <c r="F268" s="39"/>
       <c r="G268" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10115,7 +10125,7 @@
       <c r="C269" s="13"/>
       <c r="D269" s="39"/>
       <c r="E269" s="9"/>
-      <c r="F269" s="20"/>
+      <c r="F269" s="39"/>
       <c r="G269" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10137,7 +10147,7 @@
       <c r="C270" s="13"/>
       <c r="D270" s="39"/>
       <c r="E270" s="9"/>
-      <c r="F270" s="20"/>
+      <c r="F270" s="39"/>
       <c r="G270" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10157,11 +10167,11 @@
         <v>189</v>
       </c>
       <c r="C271" s="13"/>
-      <c r="D271" s="39">
+      <c r="D271" s="39"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="39">
         <v>6.0919999999999996</v>
       </c>
-      <c r="E271" s="9"/>
-      <c r="F271" s="20"/>
       <c r="G271" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10184,7 +10194,7 @@
       </c>
       <c r="D272" s="39"/>
       <c r="E272" s="9"/>
-      <c r="F272" s="20"/>
+      <c r="F272" s="39"/>
       <c r="G272" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10204,11 +10214,11 @@
         <v>192</v>
       </c>
       <c r="C273" s="13"/>
-      <c r="D273" s="39">
+      <c r="D273" s="39"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="39">
         <v>5.9690000000000003</v>
       </c>
-      <c r="E273" s="9"/>
-      <c r="F273" s="20"/>
       <c r="G273" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10231,7 +10241,7 @@
       </c>
       <c r="D274" s="39"/>
       <c r="E274" s="9"/>
-      <c r="F274" s="20"/>
+      <c r="F274" s="39"/>
       <c r="G274" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10253,7 +10263,7 @@
       <c r="C275" s="13"/>
       <c r="D275" s="39"/>
       <c r="E275" s="9"/>
-      <c r="F275" s="20"/>
+      <c r="F275" s="39"/>
       <c r="G275" s="13"/>
       <c r="H275" s="39">
         <v>2</v>
@@ -10272,7 +10282,7 @@
       <c r="C276" s="13"/>
       <c r="D276" s="39"/>
       <c r="E276" s="9"/>
-      <c r="F276" s="20"/>
+      <c r="F276" s="39"/>
       <c r="G276" s="13"/>
       <c r="H276" s="39"/>
       <c r="I276" s="9"/>
@@ -10287,11 +10297,11 @@
         <v>107</v>
       </c>
       <c r="C277" s="13"/>
-      <c r="D277" s="39">
+      <c r="D277" s="39"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="39">
         <v>5</v>
       </c>
-      <c r="E277" s="9"/>
-      <c r="F277" s="20"/>
       <c r="G277" s="13"/>
       <c r="H277" s="39"/>
       <c r="I277" s="9"/>
@@ -10308,7 +10318,7 @@
       <c r="C278" s="13"/>
       <c r="D278" s="39"/>
       <c r="E278" s="9"/>
-      <c r="F278" s="20"/>
+      <c r="F278" s="39"/>
       <c r="G278" s="13"/>
       <c r="H278" s="39"/>
       <c r="I278" s="9"/>
@@ -10328,7 +10338,7 @@
       </c>
       <c r="D279" s="39"/>
       <c r="E279" s="9"/>
-      <c r="F279" s="20"/>
+      <c r="F279" s="39"/>
       <c r="G279" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10348,7 +10358,7 @@
       <c r="C280" s="13"/>
       <c r="D280" s="39"/>
       <c r="E280" s="9"/>
-      <c r="F280" s="20"/>
+      <c r="F280" s="39"/>
       <c r="G280" s="13"/>
       <c r="H280" s="39">
         <v>4</v>
@@ -10367,7 +10377,7 @@
       <c r="C281" s="13"/>
       <c r="D281" s="39"/>
       <c r="E281" s="9"/>
-      <c r="F281" s="20"/>
+      <c r="F281" s="39"/>
       <c r="G281" s="13"/>
       <c r="H281" s="39">
         <v>3</v>
@@ -10386,7 +10396,7 @@
       <c r="C282" s="13"/>
       <c r="D282" s="39"/>
       <c r="E282" s="9"/>
-      <c r="F282" s="20"/>
+      <c r="F282" s="39"/>
       <c r="G282" s="13"/>
       <c r="H282" s="39">
         <v>2</v>
@@ -10405,7 +10415,7 @@
       <c r="C283" s="13"/>
       <c r="D283" s="39"/>
       <c r="E283" s="9"/>
-      <c r="F283" s="20"/>
+      <c r="F283" s="39"/>
       <c r="G283" s="13"/>
       <c r="H283" s="39">
         <v>3</v>
@@ -10424,7 +10434,7 @@
       <c r="C284" s="13"/>
       <c r="D284" s="39"/>
       <c r="E284" s="9"/>
-      <c r="F284" s="20"/>
+      <c r="F284" s="39"/>
       <c r="G284" s="13"/>
       <c r="H284" s="39"/>
       <c r="I284" s="9"/>
@@ -10439,11 +10449,11 @@
         <v>200</v>
       </c>
       <c r="C285" s="13"/>
-      <c r="D285" s="39">
+      <c r="D285" s="39"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="39">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E285" s="9"/>
-      <c r="F285" s="20"/>
       <c r="G285" s="13"/>
       <c r="H285" s="39"/>
       <c r="I285" s="9"/>
@@ -10463,7 +10473,7 @@
       </c>
       <c r="D286" s="39"/>
       <c r="E286" s="9"/>
-      <c r="F286" s="20"/>
+      <c r="F286" s="39"/>
       <c r="G286" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10483,7 +10493,7 @@
       <c r="C287" s="13"/>
       <c r="D287" s="39"/>
       <c r="E287" s="9"/>
-      <c r="F287" s="20"/>
+      <c r="F287" s="39"/>
       <c r="G287" s="13"/>
       <c r="H287" s="39">
         <v>1</v>
@@ -10500,11 +10510,11 @@
         <v>206</v>
       </c>
       <c r="C288" s="13"/>
-      <c r="D288" s="39">
+      <c r="D288" s="39"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="39">
         <v>7.4020000000000001</v>
       </c>
-      <c r="E288" s="9"/>
-      <c r="F288" s="20"/>
       <c r="G288" s="13"/>
       <c r="H288" s="39"/>
       <c r="I288" s="9"/>
@@ -10524,7 +10534,7 @@
       </c>
       <c r="D289" s="39"/>
       <c r="E289" s="9"/>
-      <c r="F289" s="20"/>
+      <c r="F289" s="39"/>
       <c r="G289" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10546,7 +10556,7 @@
       <c r="C290" s="13"/>
       <c r="D290" s="39"/>
       <c r="E290" s="9"/>
-      <c r="F290" s="20"/>
+      <c r="F290" s="39"/>
       <c r="G290" s="13"/>
       <c r="H290" s="39">
         <v>1</v>
@@ -10565,7 +10575,7 @@
       <c r="C291" s="13"/>
       <c r="D291" s="39"/>
       <c r="E291" s="9"/>
-      <c r="F291" s="20"/>
+      <c r="F291" s="39"/>
       <c r="G291" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10585,11 +10595,11 @@
         <v>208</v>
       </c>
       <c r="C292" s="13"/>
-      <c r="D292" s="39">
+      <c r="D292" s="39"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="39">
         <v>3.802</v>
       </c>
-      <c r="E292" s="9"/>
-      <c r="F292" s="20"/>
       <c r="G292" s="13"/>
       <c r="H292" s="39"/>
       <c r="I292" s="9"/>
@@ -10609,7 +10619,7 @@
       </c>
       <c r="D293" s="39"/>
       <c r="E293" s="9"/>
-      <c r="F293" s="20"/>
+      <c r="F293" s="39"/>
       <c r="G293" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10629,7 +10639,7 @@
       <c r="C294" s="13"/>
       <c r="D294" s="39"/>
       <c r="E294" s="9"/>
-      <c r="F294" s="20"/>
+      <c r="F294" s="39"/>
       <c r="G294" s="13"/>
       <c r="H294" s="39"/>
       <c r="I294" s="9"/>
@@ -10646,7 +10656,7 @@
       <c r="C295" s="13"/>
       <c r="D295" s="39"/>
       <c r="E295" s="9"/>
-      <c r="F295" s="20"/>
+      <c r="F295" s="39"/>
       <c r="G295" s="13"/>
       <c r="H295" s="39"/>
       <c r="I295" s="9"/>
@@ -10661,11 +10671,11 @@
         <v>209</v>
       </c>
       <c r="C296" s="13"/>
-      <c r="D296" s="39">
+      <c r="D296" s="39"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="39">
         <v>3.2439999999999998</v>
       </c>
-      <c r="E296" s="9"/>
-      <c r="F296" s="20"/>
       <c r="G296" s="13"/>
       <c r="H296" s="39"/>
       <c r="I296" s="9"/>
@@ -10685,7 +10695,7 @@
       </c>
       <c r="D297" s="39"/>
       <c r="E297" s="9"/>
-      <c r="F297" s="20"/>
+      <c r="F297" s="39"/>
       <c r="G297" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10705,11 +10715,11 @@
         <v>212</v>
       </c>
       <c r="C298" s="13"/>
-      <c r="D298" s="39">
+      <c r="D298" s="39"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="39">
         <v>4.1900000000000004</v>
       </c>
-      <c r="E298" s="9"/>
-      <c r="F298" s="20"/>
       <c r="G298" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10732,7 +10742,7 @@
       </c>
       <c r="D299" s="39"/>
       <c r="E299" s="9"/>
-      <c r="F299" s="20"/>
+      <c r="F299" s="39"/>
       <c r="G299" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10754,7 +10764,7 @@
       <c r="C300" s="13"/>
       <c r="D300" s="39"/>
       <c r="E300" s="9"/>
-      <c r="F300" s="20"/>
+      <c r="F300" s="39"/>
       <c r="G300" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10776,7 +10786,7 @@
       <c r="C301" s="13"/>
       <c r="D301" s="39"/>
       <c r="E301" s="9"/>
-      <c r="F301" s="20"/>
+      <c r="F301" s="39"/>
       <c r="G301" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10796,11 +10806,11 @@
         <v>214</v>
       </c>
       <c r="C302" s="13"/>
-      <c r="D302" s="39">
+      <c r="D302" s="39"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="39">
         <v>0.9</v>
       </c>
-      <c r="E302" s="9"/>
-      <c r="F302" s="20"/>
       <c r="G302" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10823,7 +10833,7 @@
       </c>
       <c r="D303" s="39"/>
       <c r="E303" s="9"/>
-      <c r="F303" s="20"/>
+      <c r="F303" s="39"/>
       <c r="G303" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10845,7 +10855,7 @@
       <c r="C304" s="13"/>
       <c r="D304" s="39"/>
       <c r="E304" s="9"/>
-      <c r="F304" s="20"/>
+      <c r="F304" s="39"/>
       <c r="G304" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10865,11 +10875,11 @@
         <v>217</v>
       </c>
       <c r="C305" s="13"/>
-      <c r="D305" s="39">
+      <c r="D305" s="39"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="39">
         <v>5.4210000000000003</v>
       </c>
-      <c r="E305" s="9"/>
-      <c r="F305" s="20"/>
       <c r="G305" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -10892,7 +10902,7 @@
       </c>
       <c r="D306" s="39"/>
       <c r="E306" s="9"/>
-      <c r="F306" s="20"/>
+      <c r="F306" s="39"/>
       <c r="G306" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10914,7 +10924,7 @@
       <c r="C307" s="13"/>
       <c r="D307" s="39"/>
       <c r="E307" s="9"/>
-      <c r="F307" s="20"/>
+      <c r="F307" s="39"/>
       <c r="G307" s="13"/>
       <c r="H307" s="39">
         <v>1</v>
@@ -10931,11 +10941,11 @@
         <v>219</v>
       </c>
       <c r="C308" s="13"/>
-      <c r="D308" s="39">
+      <c r="D308" s="39"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="39">
         <v>5.5369999999999999</v>
       </c>
-      <c r="E308" s="9"/>
-      <c r="F308" s="20"/>
       <c r="G308" s="13"/>
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
@@ -10955,7 +10965,7 @@
       </c>
       <c r="D309" s="39"/>
       <c r="E309" s="9"/>
-      <c r="F309" s="20"/>
+      <c r="F309" s="39"/>
       <c r="G309" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -10977,11 +10987,11 @@
         <v>221</v>
       </c>
       <c r="C310" s="13"/>
-      <c r="D310" s="39">
+      <c r="D310" s="39"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="39">
         <v>3</v>
       </c>
-      <c r="E310" s="9"/>
-      <c r="F310" s="20"/>
       <c r="G310" s="13"/>
       <c r="H310" s="39"/>
       <c r="I310" s="9"/>
@@ -10996,11 +11006,11 @@
         <v>223</v>
       </c>
       <c r="C311" s="13"/>
-      <c r="D311" s="39">
+      <c r="D311" s="39"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="39">
         <v>2.742</v>
       </c>
-      <c r="E311" s="9"/>
-      <c r="F311" s="20"/>
       <c r="G311" s="13"/>
       <c r="H311" s="39"/>
       <c r="I311" s="9"/>
@@ -11018,11 +11028,11 @@
       <c r="C312" s="13">
         <v>1.25</v>
       </c>
-      <c r="D312" s="39">
+      <c r="D312" s="39"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="39">
         <v>1</v>
       </c>
-      <c r="E312" s="9"/>
-      <c r="F312" s="20"/>
       <c r="G312" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11042,11 +11052,11 @@
         <v>221</v>
       </c>
       <c r="C313" s="13"/>
-      <c r="D313" s="39">
+      <c r="D313" s="39"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="39">
         <v>3</v>
       </c>
-      <c r="E313" s="9"/>
-      <c r="F313" s="20"/>
       <c r="G313" s="13"/>
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
@@ -11061,11 +11071,11 @@
         <v>227</v>
       </c>
       <c r="C314" s="13"/>
-      <c r="D314" s="39">
+      <c r="D314" s="39"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="39">
         <v>7.1000000000000008E-2</v>
       </c>
-      <c r="E314" s="9"/>
-      <c r="F314" s="20"/>
       <c r="G314" s="13"/>
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
@@ -11083,11 +11093,11 @@
       <c r="C315" s="13">
         <v>1.25</v>
       </c>
-      <c r="D315" s="39">
+      <c r="D315" s="39"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="39">
         <v>1.5</v>
       </c>
-      <c r="E315" s="9"/>
-      <c r="F315" s="20"/>
       <c r="G315" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11107,11 +11117,11 @@
         <v>221</v>
       </c>
       <c r="C316" s="13"/>
-      <c r="D316" s="39">
+      <c r="D316" s="39"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="39">
         <v>3</v>
       </c>
-      <c r="E316" s="9"/>
-      <c r="F316" s="20"/>
       <c r="G316" s="13"/>
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
@@ -11126,11 +11136,11 @@
         <v>230</v>
       </c>
       <c r="C317" s="13"/>
-      <c r="D317" s="39">
+      <c r="D317" s="39"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="39">
         <v>1.081</v>
       </c>
-      <c r="E317" s="9"/>
-      <c r="F317" s="20"/>
       <c r="G317" s="13"/>
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
@@ -11148,11 +11158,11 @@
       <c r="C318" s="13">
         <v>1.25</v>
       </c>
-      <c r="D318" s="39">
+      <c r="D318" s="39"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="39">
         <v>0.72099999999999997</v>
       </c>
-      <c r="E318" s="9"/>
-      <c r="F318" s="20"/>
       <c r="G318" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11170,7 +11180,7 @@
       <c r="C319" s="13"/>
       <c r="D319" s="39"/>
       <c r="E319" s="9"/>
-      <c r="F319" s="20"/>
+      <c r="F319" s="39"/>
       <c r="G319" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11193,7 +11203,7 @@
       </c>
       <c r="D320" s="39"/>
       <c r="E320" s="9"/>
-      <c r="F320" s="20"/>
+      <c r="F320" s="39"/>
       <c r="G320" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11211,11 +11221,11 @@
         <v>235</v>
       </c>
       <c r="C321" s="13"/>
-      <c r="D321" s="39">
+      <c r="D321" s="39"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="39">
         <v>1.5249999999999999</v>
       </c>
-      <c r="E321" s="9"/>
-      <c r="F321" s="20"/>
       <c r="G321" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11238,7 +11248,7 @@
       </c>
       <c r="D322" s="39"/>
       <c r="E322" s="9"/>
-      <c r="F322" s="20"/>
+      <c r="F322" s="39"/>
       <c r="G322" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11256,11 +11266,11 @@
         <v>237</v>
       </c>
       <c r="C323" s="13"/>
-      <c r="D323" s="39">
+      <c r="D323" s="39"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="39">
         <v>0.35199999999999998</v>
       </c>
-      <c r="E323" s="9"/>
-      <c r="F323" s="20"/>
       <c r="G323" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11281,11 +11291,11 @@
       <c r="C324" s="13">
         <v>1.25</v>
       </c>
-      <c r="D324" s="39">
+      <c r="D324" s="39"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="39">
         <v>2.0960000000000001</v>
       </c>
-      <c r="E324" s="9"/>
-      <c r="F324" s="20"/>
       <c r="G324" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11306,11 +11316,11 @@
       <c r="C325" s="13">
         <v>1.25</v>
       </c>
-      <c r="D325" s="39">
+      <c r="D325" s="39"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="39">
         <v>0.72899999999999998</v>
       </c>
-      <c r="E325" s="9"/>
-      <c r="F325" s="20"/>
       <c r="G325" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11331,11 +11341,11 @@
       <c r="C326" s="13">
         <v>1.25</v>
       </c>
-      <c r="D326" s="39">
+      <c r="D326" s="39"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="39">
         <v>3.0619999999999998</v>
       </c>
-      <c r="E326" s="9"/>
-      <c r="F326" s="20"/>
       <c r="G326" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11358,7 +11368,7 @@
       </c>
       <c r="D327" s="39"/>
       <c r="E327" s="9"/>
-      <c r="F327" s="20"/>
+      <c r="F327" s="39"/>
       <c r="G327" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11378,11 +11388,11 @@
         <v>241</v>
       </c>
       <c r="C328" s="13"/>
-      <c r="D328" s="39">
+      <c r="D328" s="39"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="39">
         <v>1.7210000000000001</v>
       </c>
-      <c r="E328" s="9"/>
-      <c r="F328" s="20"/>
       <c r="G328" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -11403,11 +11413,11 @@
       <c r="C329" s="13">
         <v>1.25</v>
       </c>
-      <c r="D329" s="39">
+      <c r="D329" s="39"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="39">
         <v>1.3559999999999999</v>
       </c>
-      <c r="E329" s="9"/>
-      <c r="F329" s="20"/>
       <c r="G329" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11428,11 +11438,11 @@
       <c r="C330" s="13">
         <v>1.25</v>
       </c>
-      <c r="D330" s="39">
+      <c r="D330" s="39"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="39">
         <v>1.8980000000000001</v>
       </c>
-      <c r="E330" s="9"/>
-      <c r="F330" s="20"/>
       <c r="G330" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11453,11 +11463,11 @@
       <c r="C331" s="13">
         <v>1.25</v>
       </c>
-      <c r="D331" s="39">
+      <c r="D331" s="39"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="39">
         <v>1.194</v>
       </c>
-      <c r="E331" s="9"/>
-      <c r="F331" s="20"/>
       <c r="G331" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -11478,11 +11488,11 @@
       <c r="C332" s="13">
         <v>1.25</v>
       </c>
-      <c r="D332" s="39">
+      <c r="D332" s="39"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="39">
         <v>1.2270000000000001</v>
       </c>
-      <c r="E332" s="9"/>
-      <c r="F332" s="20"/>
       <c r="G332" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
@@ -14849,7 +14859,7 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>70.166999999999916</v>
+        <v>68.416999999999916</v>
       </c>
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
@@ -15959,7 +15969,10 @@
       <c r="D529" s="39"/>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
-      <c r="G529" s="13"/>
+      <c r="G529" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H529" s="39"/>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
@@ -15976,7 +15989,10 @@
       <c r="D530" s="39"/>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="13"/>
+      <c r="G530" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H530" s="39"/>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
@@ -15986,18 +16002,27 @@
       <c r="A531" s="40">
         <v>44835</v>
       </c>
-      <c r="B531" s="20"/>
+      <c r="B531" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C531" s="13">
         <v>1.25</v>
       </c>
       <c r="D531" s="39"/>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
-      <c r="G531" s="13"/>
-      <c r="H531" s="39"/>
+      <c r="G531" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H531" s="39">
+        <v>3</v>
+      </c>
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
-      <c r="K531" s="20"/>
+      <c r="K531" s="20" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
@@ -16010,7 +16035,10 @@
       <c r="D532" s="39"/>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
-      <c r="G532" s="13"/>
+      <c r="G532" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H532" s="39"/>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
@@ -16031,7 +16059,10 @@
       </c>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
-      <c r="G533" s="13"/>
+      <c r="G533" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H533" s="39"/>
       <c r="I533" s="9"/>
       <c r="J533" s="11"/>
@@ -16059,7 +16090,9 @@
       <c r="A535" s="40">
         <v>44927</v>
       </c>
-      <c r="B535" s="20"/>
+      <c r="B535" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C535" s="13">
         <v>1.25</v>
       </c>
@@ -16070,43 +16103,51 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H535" s="39"/>
+      <c r="H535" s="39">
+        <v>3</v>
+      </c>
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
-      <c r="K535" s="20"/>
+      <c r="K535" s="20" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A536" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B536" s="20"/>
-      <c r="C536" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A536" s="40"/>
+      <c r="B536" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C536" s="13"/>
       <c r="D536" s="39"/>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H536" s="39"/>
+      <c r="G536" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H536" s="39">
+        <v>2</v>
+      </c>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
-      <c r="K536" s="20"/>
+      <c r="K536" s="20" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B537" s="20"/>
-      <c r="C537" s="13"/>
+      <c r="C537" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D537" s="39"/>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
-      <c r="G537" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G537" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
@@ -16115,7 +16156,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -16133,7 +16174,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -16151,7 +16192,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -16169,7 +16210,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -16187,7 +16228,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -16205,7 +16246,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -16223,7 +16264,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -16241,7 +16282,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -16259,7 +16300,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16277,7 +16318,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16295,7 +16336,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16313,7 +16354,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16331,7 +16372,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16349,7 +16390,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16367,7 +16408,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16385,7 +16426,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16403,7 +16444,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16421,7 +16462,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16439,7 +16480,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16457,7 +16498,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16475,7 +16516,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16493,7 +16534,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16511,7 +16552,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16529,7 +16570,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16547,7 +16588,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16565,7 +16606,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16583,7 +16624,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16600,7 +16641,9 @@
       <c r="K564" s="20"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A565" s="40"/>
+      <c r="A565" s="40">
+        <v>45809</v>
+      </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
       <c r="D565" s="39"/>
@@ -16760,20 +16803,36 @@
       <c r="K574" s="20"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A575" s="41"/>
-      <c r="B575" s="15"/>
-      <c r="C575" s="42"/>
-      <c r="D575" s="43"/>
-      <c r="E575" s="50"/>
-      <c r="F575" s="15"/>
-      <c r="G575" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H575" s="43"/>
-      <c r="I575" s="50"/>
-      <c r="J575" s="12"/>
-      <c r="K575" s="15"/>
+      <c r="A575" s="40"/>
+      <c r="B575" s="20"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="39"/>
+      <c r="E575" s="9"/>
+      <c r="F575" s="20"/>
+      <c r="G575" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H575" s="39"/>
+      <c r="I575" s="9"/>
+      <c r="J575" s="11"/>
+      <c r="K575" s="20"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A576" s="41"/>
+      <c r="B576" s="15"/>
+      <c r="C576" s="42"/>
+      <c r="D576" s="43"/>
+      <c r="E576" s="50"/>
+      <c r="F576" s="15"/>
+      <c r="G576" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="43"/>
+      <c r="I576" s="50"/>
+      <c r="J576" s="12"/>
+      <c r="K576" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16823,8 +16882,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16886,18 +16945,14 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3">
-        <v>3</v>
-      </c>
+      <c r="D3"/>
       <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>52</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F3"/>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.7330000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <v>5</v>

--- a/REGULAR/OJT/NEW DONE/ZALDIVIA, MARIAM F..xlsx
+++ b/REGULAR/OJT/NEW DONE/ZALDIVIA, MARIAM F..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE83766F-640A-495E-BA3F-5AD832DDA85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20413D6-3F1C-4A47-A08C-8955C943AD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="413">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1262,6 +1262,18 @@
   </si>
   <si>
     <t>1/23,24/2023</t>
+  </si>
+  <si>
+    <t>3/27,28/2023</t>
+  </si>
+  <si>
+    <t>PIO</t>
+  </si>
+  <si>
+    <t>3/6,7/2023</t>
+  </si>
+  <si>
+    <t>2/13,14,15/2023</t>
   </si>
 </sst>
 </file>
@@ -3688,8 +3700,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K576" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K578" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4067,12 +4078,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K576"/>
+  <dimension ref="A2:K578"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A525" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B536" sqref="B536"/>
+      <pane ySplit="4428" topLeftCell="A534" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="B539" sqref="B539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4140,7 +4151,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="60" t="s">
+        <v>410</v>
+      </c>
       <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -4231,7 +4244,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-0.62700000000012324</v>
+        <v>0.62299999999987676</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4241,7 +4254,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>68.416999999999916</v>
+        <v>62.666999999999916</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14859,7 +14872,7 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>68.416999999999916</v>
+        <v>62.666999999999916</v>
       </c>
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
@@ -16138,7 +16151,9 @@
       <c r="A537" s="40">
         <v>44958</v>
       </c>
-      <c r="B537" s="20"/>
+      <c r="B537" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C537" s="13">
         <v>1.25</v>
       </c>
@@ -16149,16 +16164,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H537" s="39"/>
+      <c r="H537" s="39">
+        <v>3</v>
+      </c>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="20"/>
+      <c r="K537" s="20" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A538" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B538" s="20"/>
+      <c r="A538" s="40"/>
+      <c r="B538" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C538" s="13"/>
       <c r="D538" s="39"/>
       <c r="E538" s="9"/>
@@ -16170,31 +16189,41 @@
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="20"/>
+      <c r="K538" s="51">
+        <v>44977</v>
+      </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B539" s="20"/>
-      <c r="C539" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B539" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C539" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D539" s="39"/>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H539" s="39"/>
+      <c r="G539" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H539" s="39">
+        <v>2</v>
+      </c>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20"/>
+      <c r="K539" s="20" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A540" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B540" s="20"/>
+      <c r="A540" s="40"/>
+      <c r="B540" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C540" s="13"/>
       <c r="D540" s="39"/>
       <c r="E540" s="9"/>
@@ -16203,14 +16232,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H540" s="39"/>
+      <c r="H540" s="39">
+        <v>2</v>
+      </c>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20"/>
+      <c r="K540" s="20" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -16228,7 +16261,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -16246,7 +16279,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -16264,7 +16297,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -16282,7 +16315,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -16300,7 +16333,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16318,7 +16351,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16336,7 +16369,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16354,7 +16387,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16372,7 +16405,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16390,7 +16423,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16408,7 +16441,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16426,7 +16459,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16444,7 +16477,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16462,7 +16495,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16480,7 +16513,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16498,7 +16531,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16516,7 +16549,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16534,7 +16567,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16552,7 +16585,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16570,7 +16603,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16588,7 +16621,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16606,7 +16639,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16624,7 +16657,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16642,7 +16675,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16659,7 +16692,9 @@
       <c r="K565" s="20"/>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A566" s="40"/>
+      <c r="A566" s="40">
+        <v>45778</v>
+      </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
@@ -16675,7 +16710,9 @@
       <c r="K566" s="20"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A567" s="40"/>
+      <c r="A567" s="40">
+        <v>45809</v>
+      </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
       <c r="D567" s="39"/>
@@ -16819,20 +16856,52 @@
       <c r="K575" s="20"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A576" s="41"/>
-      <c r="B576" s="15"/>
-      <c r="C576" s="42"/>
-      <c r="D576" s="43"/>
-      <c r="E576" s="50"/>
-      <c r="F576" s="15"/>
-      <c r="G576" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H576" s="43"/>
-      <c r="I576" s="50"/>
-      <c r="J576" s="12"/>
-      <c r="K576" s="15"/>
+      <c r="A576" s="40"/>
+      <c r="B576" s="20"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="39"/>
+      <c r="E576" s="9"/>
+      <c r="F576" s="20"/>
+      <c r="G576" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H576" s="39"/>
+      <c r="I576" s="9"/>
+      <c r="J576" s="11"/>
+      <c r="K576" s="20"/>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A577" s="40"/>
+      <c r="B577" s="20"/>
+      <c r="C577" s="13"/>
+      <c r="D577" s="39"/>
+      <c r="E577" s="9"/>
+      <c r="F577" s="20"/>
+      <c r="G577" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H577" s="39"/>
+      <c r="I577" s="9"/>
+      <c r="J577" s="11"/>
+      <c r="K577" s="20"/>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A578" s="41"/>
+      <c r="B578" s="15"/>
+      <c r="C578" s="42"/>
+      <c r="D578" s="43"/>
+      <c r="E578" s="50"/>
+      <c r="F578" s="15"/>
+      <c r="G578" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H578" s="43"/>
+      <c r="I578" s="50"/>
+      <c r="J578" s="12"/>
+      <c r="K578" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
